--- a/config_Release/shoping_config_revise.xlsx
+++ b/config_Release/shoping_config_revise.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="533"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tj|推荐配置" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="46">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -186,58 +186,6 @@
         <charset val="134"/>
       </rPr>
       <t>,</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>102</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>42</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"actp_buy_gift_bag_102</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>42</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -709,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="A3:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1244,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1294,7 +1242,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1302,14 +1250,14 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>32</v>
@@ -1317,46 +1265,13 @@
       <c r="H2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="4">
         <v>0</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>33</v>
       </c>
     </row>

--- a/config_Release/shoping_config_revise.xlsx
+++ b/config_Release/shoping_config_revise.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="533"/>
   </bookViews>
   <sheets>
     <sheet name="tj|推荐配置" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="50">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -137,19 +137,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>84,10070</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>84,10071</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>84,10072</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>84,10073</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -214,6 +206,30 @@
       </rPr>
       <t>",</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10425,10070</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10426,10071</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10426,10072</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10427,10073</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -657,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="A3:H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -712,8 +728,8 @@
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>10</v>
+      <c r="E2" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>35</v>
@@ -738,14 +754,14 @@
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
+      <c r="E3" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H3" s="7">
         <v>0</v>
@@ -771,7 +787,7 @@
         <v>35</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -797,7 +813,7 @@
         <v>35</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H5" s="4">
         <v>1</v>
@@ -823,7 +839,7 @@
         <v>35</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H6" s="4">
         <v>1</v>
@@ -849,7 +865,7 @@
         <v>35</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
@@ -875,7 +891,7 @@
         <v>35</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
@@ -901,7 +917,7 @@
         <v>35</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
@@ -927,7 +943,7 @@
         <v>35</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="4">
         <v>1</v>
@@ -953,7 +969,7 @@
         <v>35</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H11" s="4">
         <v>1</v>
@@ -1194,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1257,13 +1273,13 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I2" s="4">
         <v>0</v>
